--- a/public/files/1.1. Planilla 1.1. Pozo Tipo A.xlsx
+++ b/public/files/1.1. Planilla 1.1. Pozo Tipo A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATOS120GBW10\Escritorio\Planillas de Componentes para importar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\escritorio\AA_PLANILLAS ORDEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A021A5A1-B69E-4E0C-A4C7-001207A8EDA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E48AD-5349-4C85-A943-3F045AFB2927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C95EBAC6-EC04-4737-9958-778BE4107337}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C95EBAC6-EC04-4737-9958-778BE4107337}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1. POZO TIPO A" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -311,15 +320,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +647,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,16 +675,16 @@
       <c r="C1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -710,7 +719,7 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="7">
@@ -747,7 +756,7 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="7">
@@ -784,7 +793,7 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7">
@@ -821,7 +830,7 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="7">
@@ -858,7 +867,7 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="7">
@@ -895,7 +904,7 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="7">
@@ -932,7 +941,7 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
@@ -969,7 +978,7 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="7">
@@ -1006,7 +1015,7 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="7">
@@ -1043,7 +1052,7 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
@@ -1080,7 +1089,7 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="7">
@@ -1117,7 +1126,7 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="7">
@@ -1154,7 +1163,7 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
@@ -1191,7 +1200,7 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="7">
@@ -1228,7 +1237,7 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="7">
@@ -1265,7 +1274,7 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="7">
@@ -1302,7 +1311,7 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="7">
@@ -1339,7 +1348,7 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="7">
